--- a/MyFramework/TestData/Data.xlsx
+++ b/MyFramework/TestData/Data.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Inlogin" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Admin</t>
   </si>
@@ -30,6 +30,12 @@
   </si>
   <si>
     <t>demo1</t>
+  </si>
+  <si>
+    <t>Tukaram</t>
+  </si>
+  <si>
+    <t>Hello</t>
   </si>
 </sst>
 </file>
@@ -361,43 +367,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -408,12 +390,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>